--- a/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
+++ b/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\inetpub\wwwroot\mvc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="30" windowWidth="28515" windowHeight="13350"/>
   </bookViews>
@@ -211,7 +216,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,13 +238,25 @@
       <family val="2"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -280,10 +297,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -306,8 +324,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -316,14 +340,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -361,9 +388,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -398,7 +425,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -433,7 +460,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -610,7 +637,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I1:I1048576"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,13 +735,13 @@
       <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
@@ -723,7 +750,7 @@
       <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="16" t="s">
         <v>39</v>
       </c>
     </row>
@@ -749,13 +776,13 @@
       <c r="G4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="14" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
@@ -790,16 +817,16 @@
       <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="14" t="s">
         <v>39</v>
       </c>
     </row>
@@ -823,13 +850,13 @@
       <c r="G6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L6" s="6" t="s">
@@ -855,7 +882,7 @@
         <v>43</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="14" t="s">
         <v>30</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -879,7 +906,7 @@
         <v>44</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="14" t="s">
         <v>31</v>
       </c>
       <c r="L8" s="6" t="s">
@@ -903,10 +930,10 @@
         <v>45</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="14" t="s">
         <v>46</v>
       </c>
     </row>

--- a/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
+++ b/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
@@ -315,6 +315,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,11 +329,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -658,30 +658,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="12" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
@@ -735,13 +735,13 @@
       <c r="G3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>26</v>
       </c>
       <c r="K3" t="s">
@@ -750,7 +750,7 @@
       <c r="L3" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="13" t="s">
         <v>39</v>
       </c>
     </row>
@@ -776,13 +776,13 @@
       <c r="G4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="11" t="s">
         <v>27</v>
       </c>
       <c r="K4" t="s">
@@ -817,16 +817,16 @@
       <c r="G5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -850,16 +850,16 @@
       <c r="G6" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -882,10 +882,10 @@
         <v>43</v>
       </c>
       <c r="I7" s="5"/>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="11" t="s">
         <v>41</v>
       </c>
     </row>
@@ -906,10 +906,10 @@
         <v>44</v>
       </c>
       <c r="I8" s="5"/>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="11" t="s">
         <v>62</v>
       </c>
     </row>
@@ -930,10 +930,10 @@
         <v>45</v>
       </c>
       <c r="I9" s="5"/>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>46</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
       <c r="G10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="11" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
+++ b/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
@@ -637,7 +637,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,10 +744,10 @@
       <c r="J3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="13" t="s">
         <v>47</v>
       </c>
       <c r="M3" s="13" t="s">
@@ -991,7 +991,7 @@
       <c r="G13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="11" t="s">
         <v>52</v>
       </c>
     </row>

--- a/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
+++ b/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
@@ -637,7 +637,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,13 +785,13 @@
       <c r="J4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="13" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
+++ b/Übersicht der Funktionen von Mikrocontroller und Kommunikationsmodul.xlsx
@@ -637,7 +637,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -963,7 +963,7 @@
       <c r="G11" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="11" t="s">
         <v>50</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="G12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="L12" s="11" t="s">
         <v>51</v>
       </c>
     </row>
